--- a/pred_ohlcv/54_21/2019-10-26 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 XRP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-447077.6100428699</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-217922.5278826099</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-217922.5278826099</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-217922.5278826099</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-68442.79418260991</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-94390.30898260992</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-328886.1192826099</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-328886.1192826099</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-314708.1613826099</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-318635.8656826099</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-318635.8656826099</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-298506.6277826099</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-314647.8525738999</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-486935.9956738999</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-486935.9956738999</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-472063.5684738999</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-472063.5684738999</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-472063.5684738999</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-417145.45515619</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-510856.38635619</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-510856.38635619</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-510856.38635619</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-510856.38635619</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-510856.38635619</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-510856.38635619</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-510856.38635619</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-500743.43435619</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-500743.43435619</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-500743.43435619</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-108050.07977895</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-523544.06737895</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-515521.64154303</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-515521.64154303</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-515521.64154303</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-515521.64154303</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-515521.64154303</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-515521.64154303</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-515521.64154303</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-161798.85244303</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>3842604.81145287</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>2988939.51025287</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1621214.62470315</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>2030417.35100315</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>2030417.35100315</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>1515781.77127454</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>2031457.57424593</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>2266065.85584593</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>2866838.02943543</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>2866838.02943543</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>2650110.04863543</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>2650110.04863543</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>2358720.19549336</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>2358720.19549336</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>3467377.02549336</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>3191360.172793359</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>3348053.99369336</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>3940942.71789336</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>3732760.70399336</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>4030796.924993359</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>3744935.365136509</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>3744935.365136509</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>3069558.697936509</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>3069558.697936509</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>3277725.57100952</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>3277725.57100952</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>3277725.57100952</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>3277725.57100952</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>3277725.57100952</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>3277725.57100952</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>3277725.57100952</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>3277725.57100952</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>3277725.57100952</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>3546353.129217709</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>3134998.19851771</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>6841165.202581599</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>6228560.788180459</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>6228560.788180459</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>6228560.788180459</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>6442039.383802359</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>6254644.653002359</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>6254644.653002359</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>6254644.653002359</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>6518079.488602359</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>6576181.540464419</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>6161492.512164419</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>6161492.512164419</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>6161492.512164419</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>6094380.794864419</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>6094380.794864419</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>6599095.696764419</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>6599095.696764419</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>7196441.264464419</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>8666142.989264419</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>8666142.989264419</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>10445372.37926442</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>10445372.37926442</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>10445372.37926442</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>10445372.37926442</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>11344881.37383715</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>10768313.65483715</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>10427753.13103715</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>10980881.89613715</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>10980881.89613715</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>10980881.89613715</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>10980881.89613715</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>11161404.33933715</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>10468970.54933715</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>10515154.36733715</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>10376389.33023715</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>11280196.81523715</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>12807884.04573715</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>8498284.188052097</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>8498284.188052097</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>8315846.055970497</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>7651786.842870497</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>6726910.595170497</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>6726910.595170497</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>5520935.467870497</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>5114663.305231365</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>5114663.305231365</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>5138064.239131365</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>5066389.318531365</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>5080493.746231365</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>5080493.746231365</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>5087376.385883525</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>4920975.832283525</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>4938322.120983525</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>4845054.090383525</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>4845054.090383525</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>4610101.029183525</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>4619906.312783524</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>4611794.529783525</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>4700328.874483524</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>4700328.874483524</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>4700328.874483524</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>4700328.874483524</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>4685844.022683524</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>4679131.011283523</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>4679131.011283523</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>4679131.011283523</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>4565868.193383524</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>4465219.052183524</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>4207327.332754237</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>4211107.022054236</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>4166958.928179836</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>4166958.928179836</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>4700202.071635038</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>4700202.071635038</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>4700202.071635038</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>4685245.076335038</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>4687956.730235038</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>4572898.165535038</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>4451196.862935038</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>4883009.004387149</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>4886836.409980799</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>4798379.740680799</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>4798379.740680799</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>4798379.740680799</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>4798379.740680799</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>4798379.740680799</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>4798379.740680799</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>4818340.728880798</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>4799324.297007889</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>4799324.297007889</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>4812133.124007888</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>4812133.124007888</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>4794966.624339879</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>4794966.624339879</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>4794966.624339879</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>4794966.624339879</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>4794966.624339879</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>4794966.624339879</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>5004190.865907028</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>5004190.865907028</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>5004190.865907028</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>5022057.640107028</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>4902756.487807028</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>4902756.487807028</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>4902756.487807028</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>4834522.348456487</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>4837005.328156487</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>4837005.328156487</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>4837005.328156487</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>4705335.501297968</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>4705194.854766168</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>4803461.755260358</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>4803461.755260358</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>4811245.318260358</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>4803883.059413098</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>5033497.666713098</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>5033497.666713098</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>5033497.666713098</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>4996221.975613098</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>4996221.975613098</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>4996221.975613098</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>4996221.975613098</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>4996221.975613098</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>4996221.975613098</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>4810482.110613097</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>4810482.110613097</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>4810482.110613097</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>4810482.110613097</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>4810482.110613097</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>5478883.688362138</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>6016284.101979728</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>9157141.594423288</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>9900041.838523289</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>9900041.838523289</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>11110662.68763052</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>9309574.527001768</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>8843723.610901769</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>9236486.338072348</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>9018078.267272348</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>9018078.267272348</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>9018078.267272348</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>9018078.267272348</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>8479374.556872347</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>9031687.580372347</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>8098932.124072347</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>8098932.124072347</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>8098932.124072347</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>8098932.124072347</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>8954159.903672347</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>8954159.903672347</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>8274496.824472347</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>7388880.482935737</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>7005592.746968137</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>8680734.598076006</v>
       </c>
       <c r="H733">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>7882061.280661927</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>6981573.687522947</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>7861398.924371527</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>6767998.960040087</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>6853442.579384917</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>9742370.341006286</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>9136721.767635897</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>8905976.256435897</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>9417099.730735898</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>8675209.532031408</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>9249234.797331408</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>6709153.814639759</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>6709153.814639759</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>6709153.814639759</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>6709153.814639759</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>6709153.814639759</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>6709153.814639759</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>6842648.694439759</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>6808741.832039759</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>6812087.87203976</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>6812087.87203976</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>6809663.016839759</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>6809663.016839759</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>6809663.016839759</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>6875851.55843976</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -32762,7 +32762,7 @@
         <v>2618129.036030598</v>
       </c>
       <c r="H1245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1246" spans="1:8">
@@ -32788,7 +32788,7 @@
         <v>2618129.036030598</v>
       </c>
       <c r="H1246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1247" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 XRP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-447077.6100428699</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-328886.1192826099</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-328886.1192826099</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-314708.1613826099</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-298506.6277826099</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-314647.8525738999</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-314647.8525738999</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-314647.8525738999</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-314647.8525738999</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-486935.9956738999</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-472063.5684738999</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-500743.43435619</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>3842604.81145287</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>2988939.51025287</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1621214.62470315</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>2030417.35100315</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>2030417.35100315</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>1515781.77127454</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>2031457.57424593</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>2266065.85584593</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>2866838.02943543</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>2866838.02943543</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>2650110.04863543</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>2650110.04863543</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>2358720.19549336</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>2358720.19549336</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>3467377.02549336</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>3191360.172793359</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>3348053.99369336</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>3940942.71789336</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>3732760.70399336</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>4030796.924993359</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>3744935.365136509</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>3744935.365136509</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>3069558.697936509</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>3069558.697936509</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>3277725.57100952</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>3277725.57100952</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>3277725.57100952</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>3277725.57100952</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>3277725.57100952</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>3277725.57100952</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>3277725.57100952</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>3277725.57100952</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>3277725.57100952</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>3546353.129217709</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>3134998.19851771</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>6841165.202581599</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>6228560.788180459</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>6228560.788180459</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>6228560.788180459</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>6442039.383802359</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>6254644.653002359</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>6254644.653002359</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>6254644.653002359</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>6518079.488602359</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>6576181.540464419</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>6161492.512164419</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>6161492.512164419</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>6161492.512164419</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>6094380.794864419</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>6094380.794864419</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>6599095.696764419</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>6599095.696764419</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>7196441.264464419</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>8666142.989264419</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>8666142.989264419</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>10445372.37926442</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>10445372.37926442</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>10445372.37926442</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>10445372.37926442</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>11344881.37383715</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>10768313.65483715</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>10427753.13103715</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>10980881.89613715</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>10980881.89613715</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>10980881.89613715</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>10980881.89613715</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>11161404.33933715</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>10468970.54933715</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>10515154.36733715</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>10376389.33023715</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>11280196.81523715</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>12807884.04573715</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>12807884.04573715</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>8632718.149252098</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>8498284.188052097</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>8498284.188052097</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>8315846.055970497</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>7651786.842870497</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>6726910.595170497</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>6726910.595170497</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>5520935.467870497</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>5114663.305231365</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>5114663.305231365</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>5138064.239131365</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>5066389.318531365</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>5080493.746231365</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>5080493.746231365</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>5087376.385883525</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>4920975.832283525</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>4938322.120983525</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>4845054.090383525</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>4845054.090383525</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>4610101.029183525</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>4619906.312783524</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>4611794.529783525</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>4700328.874483524</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>4700328.874483524</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>4700328.874483524</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>4700328.874483524</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>4685844.022683524</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>4679131.011283523</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>4679131.011283523</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>4679131.011283523</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>4565868.193383524</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>4465219.052183524</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>4207327.332754237</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>4211107.022054236</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>4166958.928179836</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>4166958.928179836</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>4700202.071635038</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>4700202.071635038</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>4700202.071635038</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>4685245.076335038</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>4687956.730235038</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>4572898.165535038</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>4451196.862935038</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>4883009.004387149</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>4886836.409980799</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>4798379.740680799</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>4798379.740680799</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>4798379.740680799</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>4798379.740680799</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>4798379.740680799</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>4798379.740680799</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>4818340.728880798</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>4799324.297007889</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>4799324.297007889</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>4812133.124007888</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>4812133.124007888</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>4794966.624339879</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>4794966.624339879</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>4794966.624339879</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>4794966.624339879</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>4794966.624339879</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>4794966.624339879</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>5004190.865907028</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>5004190.865907028</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>5004190.865907028</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>5022057.640107028</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>4902756.487807028</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>4902756.487807028</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>4902756.487807028</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>4834522.348456487</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>4837005.328156487</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>4837005.328156487</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>4837005.328156487</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>4705335.501297968</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>4705194.854766168</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>4803461.755260358</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>4803461.755260358</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>4811245.318260358</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>4803883.059413098</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>5033497.666713098</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>5033497.666713098</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>5033497.666713098</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>4996221.975613098</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>4996221.975613098</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>4996221.975613098</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>4996221.975613098</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>4996221.975613098</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>4996221.975613098</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>4810482.110613097</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>4810482.110613097</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>4810482.110613097</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>4810482.110613097</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>4810482.110613097</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>5478883.688362138</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>6016284.101979728</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>9198675.603919359</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>9198675.603919359</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>9157141.594423288</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>9900041.838523289</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>9900041.838523289</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>11110662.68763052</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>9309574.527001768</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>8843723.610901769</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>9236486.338072348</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>9018078.267272348</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>9018078.267272348</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>9018078.267272348</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>9018078.267272348</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>8479374.556872347</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>9031687.580372347</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>8098932.124072347</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>8098932.124072347</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>8954159.903672347</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>8954159.903672347</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>8274496.824472347</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>7388880.482935737</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>7005592.746968137</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>8680734.598076006</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>8680734.598076006</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>7882061.280661927</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>6981573.687522947</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>7861398.924371527</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>6767998.960040087</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>6853442.579384917</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>9380868.831635706</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>9742370.341006286</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>9136721.767635897</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>8905976.256435897</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>9417099.730735898</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>8675209.532031408</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>9249234.797331408</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>8807666.965931408</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>9031773.974931408</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>8004660.160296198</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>8004660.160296198</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>8352071.536296198</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>8198136.828176938</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>8198136.828176938</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>8660205.988454748</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>8650050.650910558</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>8650050.650910558</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>8930603.041675398</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>8930603.041675398</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>8930603.041675398</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>8888597.047675397</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>9011729.582775397</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>6709153.814639759</v>
       </c>
       <c r="H862">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>6709153.814639759</v>
       </c>
       <c r="H864">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>6709153.814639759</v>
       </c>
       <c r="H865">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>6709153.814639759</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>6709153.814639759</v>
       </c>
       <c r="H867">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>6709153.814639759</v>
       </c>
       <c r="H868">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>6842648.694439759</v>
       </c>
       <c r="H869">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>6808741.832039759</v>
       </c>
       <c r="H870">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>6812087.87203976</v>
       </c>
       <c r="H871">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>6812087.87203976</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>6809663.016839759</v>
       </c>
       <c r="H873">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>6809663.016839759</v>
       </c>
       <c r="H874">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>6809663.016839759</v>
       </c>
       <c r="H875">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>6875851.55843976</v>
       </c>
       <c r="H876">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -32762,7 +32762,7 @@
         <v>2618129.036030598</v>
       </c>
       <c r="H1245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1246" spans="1:8">
@@ -32788,7 +32788,7 @@
         <v>2618129.036030598</v>
       </c>
       <c r="H1246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1247" spans="1:8">
